--- a/biology/Mycologie/Limacella_guttata/Limacella_guttata.xlsx
+++ b/biology/Mycologie/Limacella_guttata/Limacella_guttata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limacelle tachée
 Limacella guttata, la Limacelle tachée, Limacelle lenticulaire, Amanite lenticulaire ou encore Lépiote lenticulaire, est une espèce de champignons de la famille des Amanitaceae.
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Limacella guttata (Pers.) Konrad &amp; Maubl., 1924[1].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus guttatus Pers., 1793[1].
-Limacella guttata a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Limacella guttata (Pers.) Konrad &amp; Maubl., 1924.
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus guttatus Pers., 1793.
+Limacella guttata a pour synonymes :
 Agaricus guttatus Pers., 1793
 Agaricus megalodactylus Berk. &amp; Broome, 1860
 Agaricus secretanii f. guttatus Rabenh., 1844
@@ -550,7 +564,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>P. Konrad et A. Maublanc, Icones Selectae Fungorum, vol. 1, 1924, 1-50 p.</t>
         </is>
